--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>459800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>535000</v>
+      </c>
+      <c r="F8" s="3">
         <v>652800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>752400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>417300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>474600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>578500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>687800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>371400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>415700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>502400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>608600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>335000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>361700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>365000</v>
+      </c>
+      <c r="F9" s="3">
         <v>437600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>494400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>287300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>325900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>387500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>457900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>262900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>283800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>342100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>406200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>234100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>250000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F10" s="3">
         <v>215200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>258000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>130000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>148700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>191000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>229900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>108500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>131900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>160300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>202400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>100900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>111700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,25 +1052,31 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
       </c>
       <c r="F15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>1800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1039,11 +1084,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>483100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>530600</v>
+      </c>
+      <c r="F17" s="3">
         <v>600300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>659700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>442000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>474000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>537000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>602000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>392000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>416900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>468600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>531500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>346900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>364700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>52500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>92700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-24700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>41500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>85800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>33800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>77100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,113 +1243,127 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-6600</v>
       </c>
       <c r="N20" s="3">
         <v>-6200</v>
       </c>
       <c r="O20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>59100</v>
+        <v>-7000</v>
       </c>
       <c r="E21" s="3">
-        <v>98900</v>
+        <v>18600</v>
       </c>
       <c r="F21" s="3">
-        <v>-18100</v>
+        <v>66600</v>
       </c>
       <c r="G21" s="3">
+        <v>106900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I21" s="3">
         <v>6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>46400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>90300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>38700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>81300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>6900</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>7700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>44300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>84000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-33700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>32300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>77800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>27600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>70500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>19300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-9600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>26300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>34600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>64700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-24100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>63100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>44200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>34600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>64700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-24100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>63100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>44200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1100</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-1100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>3200</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>3200</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
-        <v>8500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>6600</v>
       </c>
       <c r="N32" s="3">
         <v>6200</v>
       </c>
       <c r="O32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>34600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>64700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-24100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>29900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>63100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>44200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>34600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>64700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-24100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>29900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>63100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>44200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>31700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>16300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>318400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>290400</v>
+      </c>
+      <c r="F43" s="3">
         <v>326800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>344400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>284000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>295300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>317900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>327100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>246900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>222600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>250000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>255600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>208900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>170600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>427100</v>
+      </c>
+      <c r="F44" s="3">
         <v>478500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>488000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>503400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>411700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>426500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>447500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>464300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>338300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>374600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>392600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>389300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>289600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F45" s="3">
         <v>39600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>35400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>41100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>45300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>31000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>24300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>33100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>24700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>916200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>765800</v>
+      </c>
+      <c r="F46" s="3">
         <v>875200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>893000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>832200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>765400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>813100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>822700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>771300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>601900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>681800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>693100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>633500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>490000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>335900</v>
+      </c>
+      <c r="F48" s="3">
         <v>323900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>309600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>293300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>88400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>86800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>82500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>79200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>75500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>77800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>73000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>71600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>69800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>369800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>331900</v>
+      </c>
+      <c r="F49" s="3">
         <v>319500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>319300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>304600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>304000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>298300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>257300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>249900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>219300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>215400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>216300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>220500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>174100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>12500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>18500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>18200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1646500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1443300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1527200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1530600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1439300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1168500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1210700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1181000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1118600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>910700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>985000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>991600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>935000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>742600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>162200</v>
+      </c>
+      <c r="F57" s="3">
         <v>209100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>217600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>230200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>184600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>197400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>215400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>236800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>124100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>170100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>192300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>197300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>108300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F58" s="3">
         <v>10500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>137400</v>
+      </c>
+      <c r="F59" s="3">
         <v>139400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>129900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>109500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>88100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>91900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>81400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>73300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>74900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>84300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>59500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>69900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>310800</v>
+      </c>
+      <c r="F60" s="3">
         <v>359000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>357300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>349300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>282400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>299400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>306100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>310900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>205800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>253100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>284400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>264300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>185500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>659800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>536600</v>
+      </c>
+      <c r="F61" s="3">
         <v>585800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>637100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>638500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>563200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>579300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>578500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>581600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>466900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>484200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>483100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>493800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>379200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>202700</v>
+      </c>
+      <c r="F62" s="3">
         <v>197700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>189600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>173800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>27900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>27000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>25000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>42000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>37200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>37000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>29100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1050100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1142500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1184000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1161600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>866700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>906600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>911600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>917500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>697900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>779300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>804700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>795100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>593800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>137800</v>
+      </c>
+      <c r="F72" s="3">
         <v>135300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>100700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>60100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>62200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>32300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-36000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-80200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-69700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>377500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>393200</v>
+      </c>
+      <c r="F76" s="3">
         <v>384700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>346600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>277700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>301800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>304100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>269400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>201100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>212800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>205700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>186900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>139900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>148800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>34600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>64700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-24100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>29900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>63100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>44200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F83" s="3">
         <v>14600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>15400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>9800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F89" s="3">
         <v>75800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>37100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-48500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>36400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>70100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>30900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-54700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>63700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-24300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-61700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-22800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-55300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-21700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-12400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,10 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-55100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>71400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>111200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-12700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>113300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-60800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F102" s="3">
         <v>5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-9600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>817700</v>
+      </c>
+      <c r="E8" s="3">
         <v>459800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>535000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>652800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>752400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>417300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>474600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>578500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>687800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>371400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>415700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>502400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>608600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>335000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>361700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>531600</v>
+      </c>
+      <c r="E9" s="3">
         <v>317000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>365000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>437600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>494400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>287300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>325900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>387500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>457900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>262900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>283800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>342100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>406200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>234100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>250000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E10" s="3">
         <v>142800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>170000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>215200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>258000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>148700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>191000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>229900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>160300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>202400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>111700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,28 +1078,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>705400</v>
+      </c>
+      <c r="E17" s="3">
         <v>483100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>530600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>659700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>442000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>474000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>537000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>602000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>392000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>416900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>468600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>531500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>346900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>364700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,119 +1288,125 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-6200</v>
       </c>
       <c r="N20" s="3">
         <v>-6200</v>
       </c>
       <c r="O20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>66600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>106900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>46400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>84000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>64700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>3200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>6200</v>
       </c>
       <c r="N32" s="3">
         <v>6200</v>
       </c>
       <c r="O32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P32" s="3">
         <v>6600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>64700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>64700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E41" s="3">
         <v>22000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>332700</v>
+      </c>
+      <c r="E43" s="3">
         <v>318400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>290400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>326800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>344400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>284000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>295300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>317900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>327100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>246900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>222600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>250000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>255600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>208900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>465500</v>
+      </c>
+      <c r="E44" s="3">
         <v>545000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>427100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>478500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>488000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>503400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>411700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>426500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>447500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>464300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>338300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>374600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>392600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>389300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>289600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E45" s="3">
         <v>30800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>993400</v>
+      </c>
+      <c r="E46" s="3">
         <v>916200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>765800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>875200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>893000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>832200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>765400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>813100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>822700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>771300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>601900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>681800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>693100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>633500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>490000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E48" s="3">
         <v>351400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>335900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>323900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>309600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>293300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>88400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>75500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>77800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>73000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>71600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>69800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E49" s="3">
         <v>369800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>331900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>319500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>319300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>304600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>304000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>298300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>257300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>219300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>215400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>216300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>220500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>174100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1711100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1646500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1443300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1527200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1530600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1439300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1168500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1210700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1181000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1118600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>910700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>985000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>991600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>935000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>742600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E57" s="3">
         <v>251400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>162200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>209100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>217600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>230200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>184600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>197400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>215400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>236800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>124100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>170100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>192300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>197300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E58" s="3">
         <v>12400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E59" s="3">
         <v>131600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>109500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>88100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>69900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>409600</v>
+      </c>
+      <c r="E60" s="3">
         <v>395400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>310800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>359000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>357300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>349300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>282400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>299400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>306100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>310900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>205800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>253100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>284400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>264300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>185500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E61" s="3">
         <v>659800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>536600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>585800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>637100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>638500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>563200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>579300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>578500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>581600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>466900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>484200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>483100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>493800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>379200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E62" s="3">
         <v>213800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>202700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>197700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>189600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1269000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1050100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1142500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1184000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1161600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>866700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>906600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>911600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>917500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>697900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>779300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>804700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>795100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>593800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E72" s="3">
         <v>120300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>137800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>135300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-80200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>462300</v>
+      </c>
+      <c r="E76" s="3">
         <v>377500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>393200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>384700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>346600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>277700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>301800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>304100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>269400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>201100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>212800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>205700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>186900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>139900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>148800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>64700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E83" s="3">
         <v>16300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-65600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>75800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>70100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-54700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,10 +4897,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,67 +5058,73 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>119600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>71400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>111200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>113300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4883,86 +5132,92 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>751900</v>
+      </c>
+      <c r="E8" s="3">
         <v>817700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>459800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>535000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>652800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>752400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>417300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>474600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>578500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>687800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>371400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>415700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>502400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>608600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>335000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>361700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>501800</v>
+      </c>
+      <c r="E9" s="3">
         <v>531600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>317000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>365000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>437600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>494400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>287300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>325900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>387500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>457900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>262900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>283800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>342100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>406200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>234100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>250000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E10" s="3">
         <v>286100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>142800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>170000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>215200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>258000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>148700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>191000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>229900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>108500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>160300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>202400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>111700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,31 +1101,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>683300</v>
+      </c>
+      <c r="E17" s="3">
         <v>705400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>483100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>530600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>659700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>442000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>474000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>537000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>602000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>392000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>416900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>468600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>531500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>346900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>364700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E18" s="3">
         <v>112300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,125 +1325,131 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-6200</v>
       </c>
       <c r="O20" s="3">
         <v>-6200</v>
       </c>
       <c r="P20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E21" s="3">
         <v>128700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>66600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>106900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E23" s="3">
         <v>104700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E24" s="3">
         <v>25600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E26" s="3">
         <v>79100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E27" s="3">
         <v>79100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>64700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>3200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,102 +1997,108 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>6200</v>
       </c>
       <c r="O32" s="3">
         <v>6200</v>
       </c>
       <c r="P32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E33" s="3">
         <v>79100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>64700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E35" s="3">
         <v>79100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>64700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E41" s="3">
         <v>163800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>323800</v>
+      </c>
+      <c r="E43" s="3">
         <v>332700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>318400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>290400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>326800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>344400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>284000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>295300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>317900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>327100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>246900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>222600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>250000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>255600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>208900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>475100</v>
+      </c>
+      <c r="E44" s="3">
         <v>465500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>545000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>427100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>478500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>488000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>503400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>411700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>426500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>447500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>464300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>338300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>374600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>392600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>389300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>289600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E45" s="3">
         <v>31400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="E46" s="3">
         <v>993400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>916200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>765800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>875200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>893000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>832200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>765400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>813100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>822700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>771300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>601900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>681800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>693100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>633500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>490000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E48" s="3">
         <v>347600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>351400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>335900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>323900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>309600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>293300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>88400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>86800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>75500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>77800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>73000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>71600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>69800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>376600</v>
+      </c>
+      <c r="E49" s="3">
         <v>361600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>369800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>331900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>319500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>319300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>304600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>304000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>298300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>257300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>219300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>215400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>216300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>220500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>174100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1711100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1646500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1443300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1527200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1530600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1439300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1168500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1210700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1181000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1118600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>910700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>985000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>991600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>935000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>742600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E57" s="3">
         <v>239000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>251400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>162200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>209100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>217600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>230200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>197400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>215400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>236800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>124100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>170100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>192300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>197300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
         <v>13300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E59" s="3">
         <v>157300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>131600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>137400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>129900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>109500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>88100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>69900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E60" s="3">
         <v>409600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>395400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>310800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>359000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>357300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>349300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>282400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>299400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>306100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>253100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>284400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>264300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>185500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E61" s="3">
         <v>627000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>659800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>536600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>585800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>637100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>638500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>563200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>579300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>578500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>581600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>466900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>484200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>483100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>493800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>379200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E62" s="3">
         <v>212200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>213800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>202700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>189600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>173800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1248800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1269000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1050100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1142500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1184000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1161600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>866700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>906600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>911600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>917500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>697900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>779300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>804700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>795100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>593800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E72" s="3">
         <v>199400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>120300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>137800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>135300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>36000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-80200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>777200</v>
+      </c>
+      <c r="E76" s="3">
         <v>462300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>377500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>393200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>346600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>277700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>301800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>304100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>269400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>201100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>212800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>205700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>186900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>139900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>148800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E81" s="3">
         <v>79100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>64700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E83" s="3">
         <v>16400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E89" s="3">
         <v>184700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-65600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>75800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-54700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,10 +5134,13 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>119600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>111200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>113300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,11 +5372,11 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5135,89 +5384,95 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E102" s="3">
         <v>141800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>675100</v>
+      </c>
+      <c r="E8" s="3">
         <v>751900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>817700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>459800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>535000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>652800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>752400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>417300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>474600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>578500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>687800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>371400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>415700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>502400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>608600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>335000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>361700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>452800</v>
+      </c>
+      <c r="E9" s="3">
         <v>501800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>531600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>317000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>365000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>437600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>494400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>287300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>325900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>387500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>457900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>262900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>283800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>342100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>406200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>234100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>250000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E10" s="3">
         <v>250100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>286100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>142800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>170000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>215200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>258000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>148700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>191000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>229900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>108500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>160300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>202400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>111700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,34 +1124,37 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1800</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1165,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>652900</v>
+      </c>
+      <c r="E17" s="3">
         <v>683300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>705400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>483100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>530600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>659700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>442000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>474000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>537000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>602000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>392000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>416900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>468600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>531500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>346900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>364700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>68600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,131 +1362,137 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-500</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
       </c>
       <c r="J20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-6200</v>
       </c>
       <c r="P20" s="3">
         <v>-6200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E21" s="3">
         <v>84900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>106900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1463,8 +1503,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E23" s="3">
         <v>62000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>13800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>48200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>79100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>64700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>48200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>64700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,13 +1875,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1831,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>3200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,105 +2070,111 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
       </c>
       <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>6200</v>
       </c>
       <c r="P32" s="3">
         <v>6200</v>
       </c>
       <c r="Q32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R32" s="3">
         <v>6600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>48200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>64700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>48200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>64700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E41" s="3">
         <v>274600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>163800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E43" s="3">
         <v>323800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>332700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>318400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>290400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>326800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>344400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>284000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>317900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>327100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>246900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>222600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>250000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>255600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>208900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>170600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>458600</v>
+      </c>
+      <c r="E44" s="3">
         <v>475100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>465500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>545000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>427100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>478500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>488000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>503400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>411700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>426500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>447500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>464300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>338300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>374600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>392600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>389300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>289600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E45" s="3">
         <v>42100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>851600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1115600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>993400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>916200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>765800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>875200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>893000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>832200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>765400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>813100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>822700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>771300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>601900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>681800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>693100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>633500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>490000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E48" s="3">
         <v>359500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>347600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>351400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>335900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>323900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>309600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>293300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>88400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>86800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>79200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>75500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>77800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>73000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>71600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>69800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>446900</v>
+      </c>
+      <c r="E49" s="3">
         <v>376600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>361600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>369800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>319500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>319300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>304600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>304000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>298300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>257300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>219300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>215400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>216300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>220500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>174100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1695700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1857200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1711100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1646500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1443300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1527200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1530600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1439300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1168500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1210700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1181000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1118600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>910700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>985000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>991600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>935000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>742600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E57" s="3">
         <v>223100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>239000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>251400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>162200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>209100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>217600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>230200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>184600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>197400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>215400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>236800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>124100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>170100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>192300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>197300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>108300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E59" s="3">
         <v>169800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>157300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>137400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>139400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>109500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>69900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>368600</v>
+      </c>
+      <c r="E60" s="3">
         <v>406000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>409600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>395400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>310800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>359000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>357300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>349300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>282400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>299400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>306100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>310900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>253100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>284400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>264300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>185500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>293100</v>
+      </c>
+      <c r="E61" s="3">
         <v>456000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>627000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>659800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>536600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>585800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>637100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>638500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>563200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>579300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>578500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>581600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>466900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>484200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>483100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>493800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>379200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E62" s="3">
         <v>218000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>212200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>213800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>202700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>189600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1080000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1248800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1269000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1050100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1142500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1184000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1161600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>866700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>906600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>911600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>917500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>697900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>779300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>804700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>795100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>593800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E72" s="3">
         <v>247600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>199400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>120300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>137800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>135300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>100700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>36000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>60100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E76" s="3">
         <v>777200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>462300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>377500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>393200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>384700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>346600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>277700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>301800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>304100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>269400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>201100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>212800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>205700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>186900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>139900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>148800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>48200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>64700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E83" s="3">
         <v>16300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E89" s="3">
         <v>61600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>184700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-65600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>66400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>75800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-48500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-54700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>63700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,10 +5371,13 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,79 +5550,85 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E100" s="3">
         <v>80500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>119600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>71400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>111200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>113300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5387,92 +5636,98 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-219400</v>
+      </c>
+      <c r="E102" s="3">
         <v>110800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>141800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>650200</v>
+      </c>
+      <c r="E8" s="3">
         <v>675100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>751900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>817700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>459800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>535000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>652800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>752400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>417300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>474600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>578500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>687800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>371400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>415700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>502400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>608600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>335000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>361700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>448700</v>
+      </c>
+      <c r="E9" s="3">
         <v>452800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>501800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>531600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>317000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>365000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>437600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>494400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>287300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>325900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>387500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>457900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>262900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>283800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>342100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>406200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>234100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>250000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E10" s="3">
         <v>222300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>250100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>286100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>142800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>170000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>215200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>258000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>130000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>148700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>191000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>108500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>131900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>160300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>202400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>111700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,37 +1146,40 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1190,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>639800</v>
+      </c>
+      <c r="E17" s="3">
         <v>652900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>683300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>705400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>483100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>530600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>659700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>442000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>474000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>537000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>602000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>392000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>416900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>468600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>531500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>346900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>364700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>22200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1365,137 +1398,143 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-500</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
       </c>
       <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-6200</v>
       </c>
       <c r="Q20" s="3">
         <v>-6200</v>
       </c>
       <c r="R20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-6600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E21" s="3">
         <v>40700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>84900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>66600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>81300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
         <v>9400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1506,8 +1545,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>62000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>70500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-13500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>79100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>79100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>64700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>63100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,16 +1935,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1895,11 +1955,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1907,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2073,108 +2142,114 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>500</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
       </c>
       <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>6200</v>
       </c>
       <c r="Q32" s="3">
         <v>6200</v>
       </c>
       <c r="R32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S32" s="3">
         <v>6600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>79100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>63100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>79100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>63100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E41" s="3">
         <v>55200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>274600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>163800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E43" s="3">
         <v>299600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>323800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>332700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>318400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>290400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>326800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>344400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>284000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>295300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>317900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>327100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>246900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>222600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>250000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>255600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>208900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>170600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>621800</v>
+      </c>
+      <c r="E44" s="3">
         <v>458600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>475100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>465500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>545000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>427100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>478500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>488000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>503400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>411700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>426500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>447500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>464300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>338300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>374600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>392600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>389300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>289600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1040600</v>
+      </c>
+      <c r="E46" s="3">
         <v>851600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1115600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>993400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>916200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>765800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>875200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>893000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>832200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>765400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>813100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>822700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>771300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>601900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>681800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>693100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>633500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>490000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E48" s="3">
         <v>390000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>359500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>347600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>351400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>335900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>323900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>309600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>293300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>88400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>86800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>79200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>75500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>77800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>73000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>71600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>69800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>469800</v>
+      </c>
+      <c r="E49" s="3">
         <v>446900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>376600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>361600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>369800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>331900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>319500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>319300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>304600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>304000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>298300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>257300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>219300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>215400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>216300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>220500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>174100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1906700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1695700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1857200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1711100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1646500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1443300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1527200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1530600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1439300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1168500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1210700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1181000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1118600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>910700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>985000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>991600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>935000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>742600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>320600</v>
+      </c>
+      <c r="E57" s="3">
         <v>172800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>223100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>239000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>251400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>162200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>209100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>217600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>230200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>184600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>197400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>215400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>236800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>124100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>170100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>192300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>197300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>108300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E59" s="3">
         <v>183800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>169800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>157300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>137400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>69900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>502100</v>
+      </c>
+      <c r="E60" s="3">
         <v>368600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>406000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>409600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>395400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>310800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>359000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>357300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>349300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>282400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>299400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>306100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>310900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>253100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>284400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>264300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>185500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>372900</v>
+      </c>
+      <c r="E61" s="3">
         <v>293100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>456000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>627000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>659800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>536600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>585800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>637100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>638500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>563200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>579300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>578500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>581600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>466900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>484200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>483100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>493800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>379200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E62" s="3">
         <v>239000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>218000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>212200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>213800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>202700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>197700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>189600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1101200</v>
+      </c>
+      <c r="E66" s="3">
         <v>900700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1080000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1248800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1269000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1050100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1142500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1184000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1161600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>866700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>906600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>911600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>917500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>697900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>779300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>804700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>795100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>593800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>266500</v>
+      </c>
+      <c r="E72" s="3">
         <v>259100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>247600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>199400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>120300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>137800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>135300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>805500</v>
+      </c>
+      <c r="E76" s="3">
         <v>795000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>777200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>462300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>377500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>393200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>384700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>346600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>277700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>301800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>304100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>269400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>201100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>212800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>205700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>186900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>139900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>148800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>79100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>63100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E83" s="3">
         <v>18200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E89" s="3">
         <v>48700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>61600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>184700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-65600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>66400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>75800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-48500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>70100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-54700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>63700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-171000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>80500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>119600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>111200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>113300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,17 +5869,17 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5639,95 +5887,101 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-219400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>110800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>141800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1083900</v>
+      </c>
+      <c r="E8" s="3">
         <v>650200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>675100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>751900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>817700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>459800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>535000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>652800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>752400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>417300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>578500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>687800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>371400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>415700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>502400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>608600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>361700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>695700</v>
+      </c>
+      <c r="E9" s="3">
         <v>448700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>452800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>501800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>531600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>317000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>365000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>437600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>494400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>287300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>325900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>387500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>457900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>262900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>283800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>342100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>406200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>234100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>250000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388200</v>
+      </c>
+      <c r="E10" s="3">
         <v>201500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>250100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>286100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>142800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>170000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>215200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>258000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>130000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>191000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>108500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>131900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>160300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>202400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>111700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,31 +1180,31 @@
         <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1800</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1193,8 +1215,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>919300</v>
+      </c>
+      <c r="E17" s="3">
         <v>639800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>652900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>683300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>705400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>483100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>530600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>659700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>442000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>474000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>537000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>602000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>392000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>416900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>468600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>531500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>346900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>364700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,20 +1412,21 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1401,143 +1434,149 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-6200</v>
       </c>
       <c r="R20" s="3">
         <v>-6200</v>
       </c>
       <c r="S20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-6600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E21" s="3">
         <v>28600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>66600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>46400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>90300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1548,8 +1587,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,132 +1605,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>62000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>104700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>70500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-13500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E26" s="3">
         <v>7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>79100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>44200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>79100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>63100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,19 +1995,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1958,11 +2018,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1970,11 +2030,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2042,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>3200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,20 +2190,23 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2145,111 +2214,117 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>6200</v>
       </c>
       <c r="R32" s="3">
         <v>6200</v>
       </c>
       <c r="S32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T32" s="3">
         <v>6600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>79100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>63100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>79100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>63100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E41" s="3">
         <v>32500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>274600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>163800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2700,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E43" s="3">
         <v>349200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>299600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>323800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>332700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>318400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>290400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>326800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>344400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>295300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>317900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>327100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>246900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>222600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>250000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>255600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>208900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>170600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E44" s="3">
         <v>621800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>458600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>475100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>465500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>545000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>427100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>478500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>488000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>503400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>411700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>426500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>447500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>464300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>338300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>374600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>392600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>389300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>289600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1179700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1040600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>851600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1115600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>993400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>916200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>765800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>875200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>893000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>832200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>765400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>813100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>822700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>771300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>601900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>681800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>693100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>633500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>490000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>401300</v>
+      </c>
+      <c r="E48" s="3">
         <v>388700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>390000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>359500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>347600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>351400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>335900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>323900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>309600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>293300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>79200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>75500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>77800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>73000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>71600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>69800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>488500</v>
+      </c>
+      <c r="E49" s="3">
         <v>469800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>446900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>376600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>361600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>369800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>331900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>319500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>319300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>304600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>304000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>298300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>257300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>249900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>219300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>215400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>216300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>220500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>174100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2077900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1906700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1695700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1857200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1711100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1646500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1443300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1527200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1530600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1439300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1168500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1210700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1181000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1118600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>910700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>985000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>991600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>935000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>742600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E57" s="3">
         <v>320600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>172800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>223100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>239000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>251400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>162200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>209100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>217600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>230200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>184600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>197400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>215400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>236800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>124100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>170100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>192300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>197300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>108300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
         <v>14300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E59" s="3">
         <v>167200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>183800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>169800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>157300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>137400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>69900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>555900</v>
+      </c>
+      <c r="E60" s="3">
         <v>502100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>368600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>406000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>409600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>395400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>310800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>359000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>357300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>349300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>282400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>299400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>306100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>310900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>205800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>253100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>284400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>264300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>185500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E61" s="3">
         <v>372900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>293100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>456000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>627000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>659800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>536600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>585800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>637100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>638500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>563200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>579300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>578500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>581600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>466900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>484200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>483100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>493800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>379200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E62" s="3">
         <v>226200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>239000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>218000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>212200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>213800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>202700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>197700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>189600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1141300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1101200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1080000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1248800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1269000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1050100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1142500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1184000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1161600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>866700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>906600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>911600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>917500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>697900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>779300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>804700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>795100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>593800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E72" s="3">
         <v>266500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>259100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>247600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>199400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>120300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>137800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>135300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-80200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>936600</v>
+      </c>
+      <c r="E76" s="3">
         <v>805500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>795000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>777200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>462300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>377500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>393200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>384700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>346600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>277700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>301800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>304100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>269400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>201100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>212800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>205700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>186900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>139900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>148800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>79100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>63100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E83" s="3">
         <v>19400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>184700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-65600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>75800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-48500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>70100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-54700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,10 +5843,13 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,91 +6040,97 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E100" s="3">
         <v>68900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-171000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>80500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>119600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-55100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>71400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>111200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>113300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-60800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5890,98 +6138,104 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-219400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>141800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>936400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1083900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>650200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>675100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>751900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>817700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>459800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>535000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>652800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>752400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>417300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>474600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>578500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>687800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>371400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>415700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>502400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>608600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>335000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>361700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>595900</v>
+      </c>
+      <c r="E9" s="3">
         <v>695700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>448700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>452800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>501800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>531600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>317000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>365000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>437600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>494400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>287300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>325900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>387500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>457900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>262900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>283800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>342100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>406200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>234100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>250000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E10" s="3">
         <v>388200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>201500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>222300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>250100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>286100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>142800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>170000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>215200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>258000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>130000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>191000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>229900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>108500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>131900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>160300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>202400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>100900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>111700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,43 +1190,46 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
         <v>2600</v>
       </c>
       <c r="F15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1800</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1240,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E17" s="3">
         <v>919300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>639800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>652900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>683300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>705400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>483100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>530600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>659700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>442000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>474000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>537000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>602000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>392000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>416900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>468600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>531500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>346900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>364700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E18" s="3">
         <v>164600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>112300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,23 +1445,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1437,149 +1470,155 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-500</v>
       </c>
       <c r="M20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-6200</v>
       </c>
       <c r="S20" s="3">
         <v>-6200</v>
       </c>
       <c r="T20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="U20" s="3">
         <v>-6600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>184600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>46400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>90300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1590,8 +1629,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1608,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E23" s="3">
         <v>160300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>62000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>104700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>70500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E24" s="3">
         <v>36800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E26" s="3">
         <v>123500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>79100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>44200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E27" s="3">
         <v>123500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>79100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>29900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>63100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2009,11 +2069,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2021,11 +2081,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2033,11 +2093,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2045,11 +2105,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>3200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,23 +2259,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2217,114 +2286,120 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>500</v>
       </c>
       <c r="M32" s="3">
+        <v>500</v>
+      </c>
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>6200</v>
       </c>
       <c r="S32" s="3">
         <v>6200</v>
       </c>
       <c r="T32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="U32" s="3">
         <v>6600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E33" s="3">
         <v>123500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>79100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>63100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E35" s="3">
         <v>123500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>79100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>63100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E41" s="3">
         <v>107800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>274600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>163800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,268 +2792,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E43" s="3">
         <v>415400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>349200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>299600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>323800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>332700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>318400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>290400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>326800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>344400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>284000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>295300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>317900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>327100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>246900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>222600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>250000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>255600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>208900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>170600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>628900</v>
+      </c>
+      <c r="E44" s="3">
         <v>614000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>621800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>458600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>475100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>465500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>545000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>427100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>478500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>488000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>503400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>411700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>426500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>447500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>464300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>338300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>374600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>392600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>389300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>289600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E45" s="3">
         <v>42500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1255500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1179700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1040600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>851600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1115600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>993400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>916200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>765800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>875200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>893000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>832200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>765400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>813100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>822700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>771300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>601900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>681800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>693100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>633500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>490000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>407600</v>
+      </c>
+      <c r="E48" s="3">
         <v>401300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>388700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>390000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>359500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>347600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>351400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>335900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>309600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>293300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>79200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>75500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>77800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>73000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>71600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>69800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>480500</v>
+      </c>
+      <c r="E49" s="3">
         <v>488500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>469800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>446900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>376600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>361600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>369800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>331900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>319500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>319300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>304600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>304000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>298300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>257300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>249900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>219300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>215400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>216300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>220500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>174100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2151800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2077900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1906700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1695700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1857200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1711100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1646500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1443300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1527200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1530600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1439300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1168500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1210700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1118600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>910700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>985000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>991600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>935000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>742600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E57" s="3">
         <v>313400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>320600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>172800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>223100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>239000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>251400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>162200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>209100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>217600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>230200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>184600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>197400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>215400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>236800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>124100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>170100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>192300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>197300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>108300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E58" s="3">
         <v>14600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E59" s="3">
         <v>227900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>167200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>183800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>169800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>157300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>137400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>84300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>69900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>540300</v>
+      </c>
+      <c r="E60" s="3">
         <v>555900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>502100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>368600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>406000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>409600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>395400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>310800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>359000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>357300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>349300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>282400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>299400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>306100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>310900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>205800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>253100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>284400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>264300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>185500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>351300</v>
+      </c>
+      <c r="E61" s="3">
         <v>350400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>372900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>293100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>456000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>627000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>659800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>536600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>585800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>637100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>638500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>563200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>579300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>578500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>581600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>466900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>484200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>483100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>493800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>379200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E62" s="3">
         <v>235000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>226200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>239000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>212200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>213800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>202700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>189600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1129100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1141300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1101200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1080000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1248800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1269000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1050100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1142500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1184000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1161600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>866700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>906600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>911600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>917500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>697900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>779300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>804700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>795100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>593800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E72" s="3">
         <v>390000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>266500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>259100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>247600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>199400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>120300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>137800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>135300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>62200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-80200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1022700</v>
+      </c>
+      <c r="E76" s="3">
         <v>936600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>805500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>795000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>777200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>462300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>377500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>393200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>384700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>346600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>277700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>301800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>304100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>269400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>201100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>212800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>205700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>186900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>139900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>148800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E81" s="3">
         <v>123500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>79100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>63100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E89" s="3">
         <v>137700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>184700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-65600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-48500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-54700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5846,10 +6079,13 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,97 +6285,103 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>68900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-171000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>80500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-49800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>71400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>111200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>113300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-60800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6141,101 +6389,107 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E102" s="3">
         <v>75300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-219400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>110800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>141800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>805200</v>
+      </c>
+      <c r="E8" s="3">
         <v>936400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1083900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>650200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>675100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>751900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>817700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>459800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>535000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>652800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>752400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>417300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>474600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>578500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>687800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>371400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>415700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>502400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>608600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>335000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>361700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>522800</v>
+      </c>
+      <c r="E9" s="3">
         <v>595900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>695700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>448700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>452800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>501800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>531600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>317000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>365000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>437600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>494400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>287300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>325900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>387500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>457900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>262900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>283800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>342100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>406200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>234100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>250000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E10" s="3">
         <v>340500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>388200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>201500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>222300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>250100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>286100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>142800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>170000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>215200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>258000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>191000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>229900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>108500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>131900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>160300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>202400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>111700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1070,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,28 +1141,31 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1193,46 +1212,49 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
       </c>
       <c r="G15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1800</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1243,8 +1265,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>769800</v>
+      </c>
+      <c r="E17" s="3">
         <v>833000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>919300</v>
       </c>
-      <c r="F17" s="3">
-        <v>639800</v>
-      </c>
       <c r="G17" s="3">
+        <v>640600</v>
+      </c>
+      <c r="H17" s="3">
         <v>652900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>683300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>705400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>483100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>530600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>659700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>442000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>474000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>537000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>602000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>392000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>416900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>468600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>531500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>346900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>364700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E18" s="3">
         <v>103400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>164600</v>
       </c>
-      <c r="F18" s="3">
-        <v>10400</v>
-      </c>
       <c r="G18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H18" s="3">
         <v>22200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,26 +1478,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1473,155 +1506,161 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-500</v>
       </c>
       <c r="M20" s="3">
         <v>-500</v>
       </c>
       <c r="N20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-6200</v>
       </c>
       <c r="T20" s="3">
         <v>-6200</v>
       </c>
       <c r="U20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-6600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E21" s="3">
         <v>124000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>184600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>40700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>90300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1632,8 +1671,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1650,144 +1689,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>99100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>160300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>62000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>104700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>70500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>19100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E26" s="3">
         <v>80000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>79100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>44200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E27" s="3">
         <v>80000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>123500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>79100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>29900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>44200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2072,11 +2132,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2084,11 +2144,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2096,11 +2156,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2108,11 +2168,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>3200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,26 +2328,29 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>1200</v>
-      </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2289,117 +2358,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>500</v>
       </c>
       <c r="M32" s="3">
         <v>500</v>
       </c>
       <c r="N32" s="3">
+        <v>500</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>6200</v>
       </c>
       <c r="T32" s="3">
         <v>6200</v>
       </c>
       <c r="U32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="V32" s="3">
         <v>6600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E33" s="3">
         <v>80000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>123500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>79100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>44200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E35" s="3">
         <v>80000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>123500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>79100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>44200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E41" s="3">
         <v>158000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>274600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>163800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,280 +2884,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E43" s="3">
         <v>419600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>415400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>349200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>299600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>323800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>332700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>318400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>290400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>326800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>344400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>284000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>295300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>317900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>327100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>246900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>222600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>250000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>255600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>208900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>170600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>636600</v>
+      </c>
+      <c r="E44" s="3">
         <v>628900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>614000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>621800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>458600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>475100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>465500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>545000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>427100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>478500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>488000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>503400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>411700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>426500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>447500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>464300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>338300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>374600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>392600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>389300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>289600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E45" s="3">
         <v>49000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1128800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1255500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1179700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1040600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>851600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1115600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>993400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>916200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>765800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>875200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>893000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>832200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>765400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>813100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>822700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>771300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>601900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>681800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>693100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>633500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>490000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,144 +3239,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>451700</v>
+      </c>
+      <c r="E48" s="3">
         <v>407600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>401300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>388700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>390000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>359500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>347600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>351400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>335900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>309600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>293300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>79200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>75500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>77800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>73000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>71600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>69800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E49" s="3">
         <v>480500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>488500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>469800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>446900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>376600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>361600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>369800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>331900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>319500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>319300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>304600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>304000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>298300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>257300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>249900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>219300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>215400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>216300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>220500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>174100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2116100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2151800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2077900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1906700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1695700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1857200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1711100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1646500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1443300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1527200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1530600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1439300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1168500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1210700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1181000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1118600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>910700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>985000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>991600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>935000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>742600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,416 +3792,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>254500</v>
+      </c>
+      <c r="E57" s="3">
         <v>295300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>313400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>320600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>172800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>223100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>239000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>251400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>162200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>209100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>217600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>230200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>184600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>197400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>215400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>236800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>170100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>192300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>197300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>108300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E59" s="3">
         <v>229900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>227900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>167200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>183800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>169800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>157300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>137400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>139400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>74900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>84300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>69900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>512900</v>
+      </c>
+      <c r="E60" s="3">
         <v>540300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>555900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>502100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>368600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>406000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>409600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>395400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>310800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>359000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>357300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>349300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>282400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>299400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>306100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>310900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>205800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>253100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>284400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>264300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>185500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E61" s="3">
         <v>351300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>350400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>372900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>293100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>456000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>627000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>659800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>536600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>585800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>637100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>638500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>563200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>579300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>578500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>581600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>466900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>484200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>483100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>493800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>379200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E62" s="3">
         <v>237500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>235000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>226200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>239000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>218000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>212200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>213800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>202700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>197700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>189600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1058400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1129100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1141300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1101200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1080000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1248800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1269000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1050100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1142500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1184000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1161600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>866700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>906600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>911600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>917500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>697900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>779300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>804700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>795100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>593800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E72" s="3">
         <v>470000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>390000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>266500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>259100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>247600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>199400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>120300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>137800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>135300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>60100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>62200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-80200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1057700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1022700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>936600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>805500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>795000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>777200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>462300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>377500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>393200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>384700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>346600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>277700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>301800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>304100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>269400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>201100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>212800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>205700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>186900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>139900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>148800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E81" s="3">
         <v>80000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>123500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>79100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>44200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E83" s="3">
         <v>21000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E89" s="3">
         <v>67200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>61600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>184700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-65600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>75800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-48500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-40800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-54700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>63700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-59000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6082,10 +6315,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,103 +6530,109 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>68900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-171000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>80500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>71400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>111200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>113300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-60800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6392,104 +6640,110 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>100</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="E102" s="3">
         <v>50200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>75300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-219400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>110800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>141800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,330 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>805300</v>
+      </c>
+      <c r="E8" s="3">
         <v>805200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>936400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1083900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>650200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>675100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>751900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>817700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>459800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>535000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>652800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>752400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>417300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>474600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>578500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>687800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>371400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>415700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>502400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>608600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>335000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>361700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>536100</v>
+      </c>
+      <c r="E9" s="3">
         <v>522800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>595900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>695700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>448700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>452800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>531600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>317000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>365000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>437600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>494400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>287300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>325900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>387500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>457900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>262900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>283800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>342100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>406200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>234100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>250000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E10" s="3">
         <v>282400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>340500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>388200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>201500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>222300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>250100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>286100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>170000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>215200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>258000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>191000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>229900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>108500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>131900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>160300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>202400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>111700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,31 +1160,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1215,49 +1234,52 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>2600</v>
       </c>
       <c r="H15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1800</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1268,8 +1290,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1286,8 +1308,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>764100</v>
+      </c>
+      <c r="E17" s="3">
         <v>769800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>833000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>919300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>640600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>652900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>683300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>705400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>483100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>530600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>659700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>442000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>474000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>537000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>602000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>392000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>416900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>468600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>531500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>346900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>364700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E18" s="3">
         <v>35400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>164600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>85800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,8 +1511,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,20 +1521,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1509,161 +1542,167 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-500</v>
       </c>
       <c r="N20" s="3">
         <v>-500</v>
       </c>
       <c r="O20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-6200</v>
       </c>
       <c r="U20" s="3">
         <v>-6200</v>
       </c>
       <c r="V20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-6600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E21" s="3">
         <v>57700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>184600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>40700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>84900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>90300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>81300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1674,8 +1713,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1692,150 +1731,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E23" s="3">
         <v>30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>160300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>62000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>104700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>70500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-18100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E26" s="3">
         <v>27500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>79100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>29900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>44200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E27" s="3">
         <v>27500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>123500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>79100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>29900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>63100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>44200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,40 +2175,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2159,11 +2219,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2171,11 +2231,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>3200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2189,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,8 +2397,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2340,20 +2409,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2361,120 +2430,126 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>500</v>
       </c>
       <c r="N32" s="3">
         <v>500</v>
       </c>
       <c r="O32" s="3">
+        <v>500</v>
+      </c>
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>6200</v>
       </c>
       <c r="U32" s="3">
         <v>6200</v>
       </c>
       <c r="V32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W32" s="3">
         <v>6600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E33" s="3">
         <v>27500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>80000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>123500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>79100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>63100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>44200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E35" s="3">
         <v>27500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>80000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>123500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>79100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>63100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>44200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E41" s="3">
         <v>53700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>274600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>163800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,292 +2976,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>437100</v>
+      </c>
+      <c r="E43" s="3">
         <v>397100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>419600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>415400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>349200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>299600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>323800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>332700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>318400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>290400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>326800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>344400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>284000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>295300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>317900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>327100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>246900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>222600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>250000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>255600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>208900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>170600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>853700</v>
+      </c>
+      <c r="E44" s="3">
         <v>636600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>628900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>614000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>621800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>458600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>475100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>465500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>545000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>427100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>478500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>488000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>503400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>411700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>426500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>447500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>464300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>338300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>374600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>392600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>389300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>289600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="3">
         <v>41400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1385900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1128800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1255500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1179700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1040600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>851600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1115600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>993400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>916200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>765800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>875200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>893000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>832200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>765400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>813100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>822700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>771300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>601900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>681800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>693100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>633500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>490000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,150 +3346,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>460700</v>
+      </c>
+      <c r="E48" s="3">
         <v>451700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>407600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>401300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>388700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>390000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>359500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>347600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>351400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>335900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>323900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>309600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>293300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>82500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>79200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>75500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>77800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>73000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>71600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>69800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>544900</v>
+      </c>
+      <c r="E49" s="3">
         <v>525000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>480500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>488500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>469800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>446900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>376600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>361600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>369800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>331900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>319500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>319300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>304600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>304000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>298300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>257300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>249900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>219300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>215400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>216300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>220500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>174100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2407400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2116100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2151800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2077900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1906700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1695700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1857200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1711100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1646500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1443300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1527200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1530600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1439300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1168500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1210700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1181000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1118600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>910700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>985000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>991600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>935000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>742600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,434 +3922,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E57" s="3">
         <v>254500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>295300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>313400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>320600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>172800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>223100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>239000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>251400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>162200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>209100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>217600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>230200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>184600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>197400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>215400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>236800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>170100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>192300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>197300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>108300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E59" s="3">
         <v>243400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>167200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>183800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>169800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>157300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>139400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>129900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>74900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>84300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>69900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>597500</v>
+      </c>
+      <c r="E60" s="3">
         <v>512900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>540300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>555900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>502100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>368600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>406000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>409600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>395400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>310800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>359000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>357300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>349300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>282400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>299400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>306100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>310900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>205800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>253100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>284400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>264300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>185500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E61" s="3">
         <v>285600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>351300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>350400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>372900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>293100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>456000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>627000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>659800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>536600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>585800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>637100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>638500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>563200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>579300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>578500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>581600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>466900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>484200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>483100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>493800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>379200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E62" s="3">
         <v>259900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>237500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>235000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>226200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>239000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>218000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>212200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>213800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>202700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>197700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>189600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1308200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1058400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1129100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1141300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1101200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1080000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1248800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1269000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1050100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1142500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1184000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1161600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>866700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>906600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>911600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>917500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>697900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>779300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>804700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>795100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>593800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>529800</v>
+      </c>
+      <c r="E72" s="3">
         <v>497500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>470000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>390000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>266500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>259100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>247600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>199400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>120300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>137800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>135300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>60100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>62200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-80200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1099200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1057700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1022700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>936600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>805500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>795000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>777200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>462300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>377500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>393200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>384700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>346600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>277700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>301800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>304100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>269400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>201100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>212800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>205700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>186900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>139900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>148800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E81" s="3">
         <v>27500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>80000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>123500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>79100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>63100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>44200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E83" s="3">
         <v>22300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="E89" s="3">
         <v>51400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>137700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>184700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-65600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>75800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-48500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-40800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-54700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>63700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-84700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-59000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6481,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6318,10 +6551,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,109 +6775,115 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>68900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-171000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>80500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-38200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>71400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>111200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>113300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-60800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6643,107 +6891,113 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>100</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-104300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>75300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-219400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>110800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>141800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,342 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="E8" s="3">
         <v>805300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>805200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>936400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1083900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>650200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>675100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>751900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>817700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>459800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>535000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>652800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>752400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>417300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>474600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>578500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>687800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>371400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>415700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>502400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>608600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>335000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>361700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>755500</v>
+      </c>
+      <c r="E9" s="3">
         <v>536100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>522800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>595900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>695700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>448700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>452800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>531600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>317000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>365000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>437600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>494400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>287300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>325900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>387500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>457900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>262900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>283800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>342100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>406200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>234100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>250000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>461100</v>
+      </c>
+      <c r="E10" s="3">
         <v>269200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>282400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>340500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>388200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>201500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>222300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>250100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>286100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>142800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>170000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>215200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>258000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>130000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>191000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>229900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>108500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>131900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>160300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>202400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>111700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1102,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,34 +1179,37 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1237,8 +1256,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,43 +1268,43 @@
         <v>3000</v>
       </c>
       <c r="E15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="3">
         <v>2900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2600</v>
       </c>
       <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1293,8 +1315,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1311,8 +1333,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1026500</v>
+      </c>
+      <c r="E17" s="3">
         <v>764100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>769800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>833000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>919300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>640600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>652900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>683300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>705400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>483100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>530600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>659700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>442000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>474000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>537000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>602000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>392000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>416900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>468600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>531500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>346900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>364700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E18" s="3">
         <v>41200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>164600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>85800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-20600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,8 +1544,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,20 +1557,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1545,167 +1578,173 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-500</v>
       </c>
       <c r="O20" s="3">
         <v>-500</v>
       </c>
       <c r="P20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-6200</v>
       </c>
       <c r="V20" s="3">
         <v>-6200</v>
       </c>
       <c r="W20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="X20" s="3">
         <v>-6600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E21" s="3">
         <v>62900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>184600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>84900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>90300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>81300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1716,8 +1755,8 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1734,156 +1773,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E23" s="3">
         <v>36900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>160300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>62000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-27200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>70500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E26" s="3">
         <v>32300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>79100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>44200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E27" s="3">
         <v>32300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>80000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>123500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>79100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>29900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>63100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2204,17 +2264,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2222,11 +2282,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2234,11 +2294,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>3200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2252,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,8 +2466,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,20 +2481,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2433,123 +2502,129 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>500</v>
       </c>
       <c r="O32" s="3">
         <v>500</v>
       </c>
       <c r="P32" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>6200</v>
       </c>
       <c r="V32" s="3">
         <v>6200</v>
       </c>
       <c r="W32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="X32" s="3">
         <v>6600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E33" s="3">
         <v>32300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>80000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>123500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>63100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>44200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E35" s="3">
         <v>32300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>80000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>123500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>63100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>44200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E41" s="3">
         <v>45100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>274600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,304 +3068,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>527100</v>
+      </c>
+      <c r="E43" s="3">
         <v>437100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>397100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>419600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>415400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>349200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>299600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>323800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>318400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>290400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>326800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>344400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>284000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>295300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>317900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>327100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>246900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>222600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>250000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>255600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>208900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>170600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>864900</v>
+      </c>
+      <c r="E44" s="3">
         <v>853700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>636600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>628900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>614000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>621800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>458600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>475100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>465500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>545000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>427100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>478500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>488000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>503400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>411700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>426500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>447500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>464300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>338300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>374600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>392600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>389300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>289600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E45" s="3">
         <v>50000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1498500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1385900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1128800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1255500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1179700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1040600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>851600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1115600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>993400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>916200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>765800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>875200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>893000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>832200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>765400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>813100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>822700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>771300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>601900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>681800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>693100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>633500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>490000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3349,156 +3453,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>473900</v>
+      </c>
+      <c r="E48" s="3">
         <v>460700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>451700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>407600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>401300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>388700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>390000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>359500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>347600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>351400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>335900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>323900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>309600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>293300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>82500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>79200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>75500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>77800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>73000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>71600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>69800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E49" s="3">
         <v>544900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>525000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>480500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>488500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>469800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>446900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>376600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>361600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>369800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>319500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>319300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>304600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>304000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>298300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>257300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>249900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>219300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>215400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>216300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>220500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>174100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>15900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2594300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2407400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2116100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2151800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2077900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1906700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1695700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1857200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1711100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1646500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1443300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1527200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1530600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1439300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1168500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1210700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1181000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1118600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>910700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>985000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>991600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>935000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>742600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,452 +4052,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>342400</v>
+      </c>
+      <c r="E57" s="3">
         <v>390300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>254500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>295300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>313400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>320600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>172800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>223100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>239000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>251400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>162200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>209100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>217600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>230200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>184600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>197400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>215400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>236800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>124100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>170100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>192300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>197300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>108300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>255100</v>
+      </c>
+      <c r="E59" s="3">
         <v>191900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>243400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>227900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>167200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>183800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>169800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>157300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>137400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>139400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>129900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>109500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>74900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>84300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>69900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>613400</v>
+      </c>
+      <c r="E60" s="3">
         <v>597500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>512900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>540300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>555900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>502100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>368600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>406000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>409600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>395400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>359000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>357300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>349300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>282400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>299400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>306100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>310900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>205800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>253100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>284400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>264300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>185500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>470500</v>
+      </c>
+      <c r="E61" s="3">
         <v>446400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>351300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>350400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>293100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>456000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>627000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>659800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>536600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>585800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>637100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>638500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>563200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>579300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>578500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>581600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>466900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>484200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>483100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>493800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>379200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>266800</v>
+      </c>
+      <c r="E62" s="3">
         <v>264300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>259900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>237500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>235000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>226200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>239000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>212200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>213800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>202700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>197700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>189600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1350700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1308200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1058400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1129100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1141300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1101200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1080000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1248800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1269000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1050100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1142500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1184000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1161600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>866700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>906600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>911600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>917500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>697900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>779300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>804700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>795100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>593800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>670500</v>
+      </c>
+      <c r="E72" s="3">
         <v>529800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>497500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>470000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>390000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>266500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>259100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>247600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>199400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>120300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>137800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>135300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>60100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>62200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-80200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1243600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1099200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1057700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1022700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>936600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>805500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>795000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>777200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>462300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>377500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>393200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>384700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>346600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>277700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>301800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>304100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>269400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>201100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>212800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>205700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>186900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>139900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>148800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E81" s="3">
         <v>32300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>80000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>123500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>63100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>44200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E83" s="3">
         <v>21700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-118300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>137700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>184700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-65600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>75800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-40800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-54700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>63700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-84700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6554,10 +6787,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,115 +7020,121 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E100" s="3">
         <v>150600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-71000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>68900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-171000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>80500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-38200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>119600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>71400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>111200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>113300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-60800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6894,110 +7142,116 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-104300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>75300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-219400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>141800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,354 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1102600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1216600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>805300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>805200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>936400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1083900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>650200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>675100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>751900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>817700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>459800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>535000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>652800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>752400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>417300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>474600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>578500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>687800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>371400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>415700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>502400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>608600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>335000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>361700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E9" s="3">
         <v>755500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>536100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>522800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>595900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>695700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>448700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>452800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>531600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>317000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>365000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>437600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>494400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>287300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>325900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>387500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>457900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>262900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>283800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>342100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>406200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>234100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>250000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E10" s="3">
         <v>461100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>269200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>282400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>340500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>388200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>201500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>222300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>250100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>286100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>142800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>170000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>215200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>258000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>130000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>191000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>229900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>108500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>131900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>160300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>202400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>100900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>111700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,8 +1118,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,37 +1198,40 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1259,55 +1278,58 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
         <v>3000</v>
       </c>
       <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3">
         <v>2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2600</v>
       </c>
       <c r="I15" s="3">
         <v>2600</v>
       </c>
       <c r="J15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1800</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1318,8 +1340,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1336,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1026500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>764100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>769800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>833000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>919300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>640600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>652900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>683300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>705400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>483100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>530600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>659700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>442000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>474000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>537000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>602000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>392000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>416900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>468600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>531500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>346900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>364700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E18" s="3">
         <v>190100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>164600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>77100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,8 +1577,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,20 +1593,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1581,173 +1614,179 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-500</v>
       </c>
       <c r="P20" s="3">
         <v>-500</v>
       </c>
       <c r="Q20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-6200</v>
       </c>
       <c r="W20" s="3">
         <v>-6200</v>
       </c>
       <c r="X20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E21" s="3">
         <v>213200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>62900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>184600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>90300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>81300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1758,8 +1797,8 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1776,162 +1815,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E23" s="3">
         <v>185500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>160300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>104700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-27200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>70500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>44800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E26" s="3">
         <v>140700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>123500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>29900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>44200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E27" s="3">
         <v>140700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>80000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>123500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>79100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>64700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>29900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>44200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2295,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2267,17 +2327,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2285,11 +2345,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2297,11 +2357,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>3200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2315,8 +2375,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,8 +2535,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2484,20 +2553,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2505,126 +2574,132 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>500</v>
       </c>
       <c r="P32" s="3">
         <v>500</v>
       </c>
       <c r="Q32" s="3">
+        <v>500</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>6200</v>
       </c>
       <c r="W32" s="3">
         <v>6200</v>
       </c>
       <c r="X32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>6600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E33" s="3">
         <v>140700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>80000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>123500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>79100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>64700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>63100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>44200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E35" s="3">
         <v>140700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>80000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>123500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>79100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>64700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>63100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>44200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3002,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E41" s="3">
         <v>50100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>158000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>274600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,316 +3160,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>502800</v>
+      </c>
+      <c r="E43" s="3">
         <v>527100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>437100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>397100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>419600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>415400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>349200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>299600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>323800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>332700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>318400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>290400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>326800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>344400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>284000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>295300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>317900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>327100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>246900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>222600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>250000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>255600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>208900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>170600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>853500</v>
+      </c>
+      <c r="E44" s="3">
         <v>864900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>853700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>636600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>628900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>614000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>621800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>458600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>475100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>465500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>545000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>427100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>478500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>488000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>503400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>411700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>426500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>447500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>464300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>338300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>374600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>392600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>389300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>289600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E45" s="3">
         <v>56400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>41100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>33100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>24700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>13500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1498500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1385900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1128800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1255500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1179700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1040600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>851600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1115600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>993400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>916200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>765800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>875200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>893000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>832200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>765400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>813100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>822700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>771300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>601900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>681800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>693100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>633500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>490000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,162 +3560,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>486400</v>
+      </c>
+      <c r="E48" s="3">
         <v>473900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>460700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>451700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>407600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>401300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>388700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>390000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>359500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>347600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>351400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>335900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>323900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>309600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>293300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>82500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>79200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>75500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>77800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>73000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>71600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>69800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>653400</v>
+      </c>
+      <c r="E49" s="3">
         <v>609000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>544900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>525000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>480500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>488500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>469800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>446900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>376600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>361600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>369800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>331900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>319500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>319300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>304600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>304000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>298300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>257300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>249900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>219300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>215400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>216300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>220500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>174100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3880,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2632400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2594300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2407400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2116100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2151800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2077900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1906700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1695700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1857200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1711100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1646500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1443300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1527200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1530600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1439300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1168500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1210700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1181000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1118600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>910700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>985000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>991600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>935000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>742600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,470 +4182,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E57" s="3">
         <v>342400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>390300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>254500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>295300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>313400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>320600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>172800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>223100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>239000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>251400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>162200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>209100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>217600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>230200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>184600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>197400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>215400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>236800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>124100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>170100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>192300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>197300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>108300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E59" s="3">
         <v>255100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>191900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>243400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>229900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>227900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>167200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>169800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>157300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>137400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>139400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>129900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>109500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>74900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>84300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>69900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>607100</v>
+      </c>
+      <c r="E60" s="3">
         <v>613400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>597500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>512900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>540300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>555900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>502100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>368600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>406000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>409600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>395400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>310800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>359000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>357300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>349300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>282400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>299400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>306100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>310900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>205800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>253100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>284400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>264300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>185500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>422400</v>
+      </c>
+      <c r="E61" s="3">
         <v>470500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>446400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>285600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>351300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>350400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>372900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>293100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>456000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>627000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>659800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>536600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>585800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>637100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>638500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>563200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>579300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>578500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>581600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>466900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>484200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>483100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>493800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>379200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>279600</v>
+      </c>
+      <c r="E62" s="3">
         <v>266800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>264300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>259900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>237500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>235000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>226200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>239000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>212200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>213800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>202700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>197700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>189600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>42000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>37000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>29100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1309100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1350700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1308200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1058400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1129100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1141300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1101200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1080000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1248800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1269000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1050100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1142500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1184000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1161600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>866700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>906600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>911600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>917500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>697900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>779300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>804700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>795100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>593800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>743800</v>
+      </c>
+      <c r="E72" s="3">
         <v>670500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>529800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>497500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>470000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>390000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>266500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>259100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>247600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>199400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>120300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>137800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>135300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>60100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>62200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-80200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1323300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1243600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1099200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1057700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1022700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>936600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>805500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>795000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>777200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>462300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>377500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>393200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>384700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>346600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>277700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>301800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>304100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>269400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>201100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>212800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>205700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>186900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>139900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>148800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E81" s="3">
         <v>140700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>80000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>123500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>79100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>64700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>63100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>44200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6007,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E83" s="3">
         <v>23100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E89" s="3">
         <v>94700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-118300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-65600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>75800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-48500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>17100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-54700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>63700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6597,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-84700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-97300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-55300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,8 +6947,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6790,10 +7023,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,121 +7265,127 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E100" s="3">
         <v>14300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>150600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-71000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>68900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-171000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>119600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>71400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>111200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>113300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-60800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -7145,113 +7393,119 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>100</v>
       </c>
       <c r="Y101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-104300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>75300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-219400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>141800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,366 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1102600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1216600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>805300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>805200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>936400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1083900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>650200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>675100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>751900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>817700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>459800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>535000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>652800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>752400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>417300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>474600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>578500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>687800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>371400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>415700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>502400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>608600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>335000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>361700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>587400</v>
+      </c>
+      <c r="E9" s="3">
         <v>714000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>755500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>536100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>522800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>595900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>695700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>448700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>452800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>501800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>531600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>317000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>365000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>437600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>494400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>287300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>325900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>387500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>457900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>262900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>283800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>342100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>406200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>234100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>250000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E10" s="3">
         <v>388600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>461100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>269200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>282400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>340500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>388200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>201500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>250100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>286100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>142800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>170000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>215200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>258000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>148700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>191000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>229900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>108500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>131900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>160300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>202400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>100900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>111700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1134,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1201,40 +1217,43 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1281,58 +1300,61 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3000</v>
       </c>
       <c r="F15" s="3">
         <v>3000</v>
       </c>
       <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2600</v>
       </c>
       <c r="J15" s="3">
         <v>2600</v>
       </c>
       <c r="K15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1800</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1343,8 +1365,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1361,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1001400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1026500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>764100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>769800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>833000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>919300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>640600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>652900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>683300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>705400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>483100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>530600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>659700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>442000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>474000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>537000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>602000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>392000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>416900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>468600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>531500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>346900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>364700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>101200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>190100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>164600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>85800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-20600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,8 +1610,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1596,20 +1629,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1617,179 +1650,185 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-500</v>
       </c>
       <c r="Q20" s="3">
         <v>-500</v>
       </c>
       <c r="R20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-6200</v>
       </c>
       <c r="X20" s="3">
         <v>-6200</v>
       </c>
       <c r="Y20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E21" s="3">
         <v>128600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>213200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>184600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>90300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-15500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>38700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>81300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1800,8 +1839,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1818,168 +1857,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>96200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>185500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>104700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-33700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-27200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>70500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>22900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>73300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>140700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>29900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>44200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>73300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>140700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>80000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>123500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>64700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>29900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>44200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2355,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2330,17 +2390,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2348,11 +2408,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2360,11 +2420,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>3200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2378,8 +2438,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,8 +2604,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2556,20 +2625,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2577,129 +2646,135 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>500</v>
       </c>
       <c r="Q32" s="3">
         <v>500</v>
       </c>
       <c r="R32" s="3">
+        <v>500</v>
+      </c>
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>6200</v>
       </c>
       <c r="X32" s="3">
         <v>6200</v>
       </c>
       <c r="Y32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>6600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>73300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>140700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>80000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>123500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>63100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>44200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>73300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>140700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>80000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>123500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>63100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>44200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,88 +3088,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="3">
         <v>62700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>158000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>274600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>16300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3163,328 +3252,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>466400</v>
+      </c>
+      <c r="E43" s="3">
         <v>502800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>527100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>437100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>397100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>419600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>415400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>349200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>299600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>323800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>332700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>318400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>290400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>326800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>344400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>284000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>295300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>317900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>327100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>246900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>222600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>250000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>255600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>208900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>170600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>767700</v>
+      </c>
+      <c r="E44" s="3">
         <v>853500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>864900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>853700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>636600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>628900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>614000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>621800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>458600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>475100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>465500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>545000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>427100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>478500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>488000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>503400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>411700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>426500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>447500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>464300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>338300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>374600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>392600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>389300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>289600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E45" s="3">
         <v>57300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>33100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>24700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>13500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1319300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1476300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1498500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1385900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1128800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1255500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1179700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1040600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>851600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1115600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>993400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>916200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>765800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>875200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>893000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>832200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>765400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>813100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>822700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>771300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>601900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>681800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>693100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>633500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>490000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3563,168 +3667,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E48" s="3">
         <v>486400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>473900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>460700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>451700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>407600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>401300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>388700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>390000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>359500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>347600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>351400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>335900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>323900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>309600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>293300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>82500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>79200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>75500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>77800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>73000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>71600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>69800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>687900</v>
+      </c>
+      <c r="E49" s="3">
         <v>653400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>609000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>544900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>525000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>480500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>488500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>469800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>446900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>376600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>361600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>369800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>331900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>319500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>319300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>304600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>304000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>298300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>257300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>249900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>219300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>215400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>216300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>220500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>174100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,88 +3999,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E52" s="3">
         <v>16300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2533900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2632400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2594300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2407400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2116100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2151800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2077900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1906700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1695700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1857200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1711100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1646500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1443300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1527200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1530600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1439300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1168500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1210700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1181000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1118600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>910700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>985000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>991600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>935000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>742600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,488 +4312,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>279700</v>
+      </c>
+      <c r="E57" s="3">
         <v>340000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>342400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>390300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>254500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>295300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>313400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>320600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>172800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>223100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>239000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>251400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>209100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>217600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>230200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>184600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>197400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>215400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>236800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>124100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>170100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>192300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>197300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>108300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E58" s="3">
         <v>16900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E59" s="3">
         <v>250200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>255100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>191900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>243400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>229900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>227900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>167200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>169800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>157300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>139400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>129900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>109500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>65500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>73300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>74900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>84300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>59500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>69900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E60" s="3">
         <v>607100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>613400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>597500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>512900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>540300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>555900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>502100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>368600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>406000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>409600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>395400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>310800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>359000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>357300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>349300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>282400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>299400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>306100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>310900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>205800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>253100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>284400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>264300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>185500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E61" s="3">
         <v>422400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>470500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>446400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>285600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>351300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>350400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>372900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>293100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>456000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>627000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>659800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>536600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>585800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>637100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>638500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>563200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>579300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>578500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>581600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>466900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>484200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>483100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>493800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>379200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E62" s="3">
         <v>279600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>266800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>264300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>259900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>237500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>235000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>226200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>239000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>218000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>212200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>213800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>202700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>197700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>189600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>37200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>37000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>29100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1309100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1350700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1308200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1058400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1129100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1141300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1101200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1080000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1248800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1269000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1050100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1142500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1184000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1161600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>866700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>906600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>911600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>917500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>697900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>779300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>804700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>795100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>593800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5253,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>742900</v>
+      </c>
+      <c r="E72" s="3">
         <v>743800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>670500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>529800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>497500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>470000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>390000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>266500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>259100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>247600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>199400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>120300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>137800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>135300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>60100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>62200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-80200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1302900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1323300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1243600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1099200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1057700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1022700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>936600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>805500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>795000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>777200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>462300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>377500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>393200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>384700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>346600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>277700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>301800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>304100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>269400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>201100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>212800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>205700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>186900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>139900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>148800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>73300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>140700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>80000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>123500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>63100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>44200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,88 +6205,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E89" s="3">
         <v>136100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-118300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>137700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>61600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>184700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-65600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>75800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-48500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-40800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>17100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-54700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>63700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,88 +6817,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-66300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-103700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-84700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-55300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,8 +7180,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7026,10 +7259,13 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,127 +7510,133 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>150600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-71000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>68900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-171000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>119600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>71400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>111200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>113300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-60800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7396,116 +7644,122 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>100</v>
       </c>
       <c r="Z101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E102" s="3">
         <v>12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-104300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>75300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-219400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>141800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,378 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44563</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44199</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>837400</v>
+      </c>
+      <c r="E8" s="3">
         <v>890000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1102600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1216600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>805300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>805200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>936400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1083900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>650200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>675100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>751900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>817700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>459800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>535000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>652800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>752400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>417300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>474600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>578500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>687800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>371400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>415700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>502400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>608600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>335000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>361700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E9" s="3">
         <v>587400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>714000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>755500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>536100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>522800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>595900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>695700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>448700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>452800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>501800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>531600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>317000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>365000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>437600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>494400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>287300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>325900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>387500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>457900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>262900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>283800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>342100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>406200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>234100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>250000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287100</v>
+      </c>
+      <c r="E10" s="3">
         <v>302600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>388600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>461100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>269200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>282400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>340500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>388200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>201500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>250100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>286100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>142800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>170000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>215200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>258000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>148700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>191000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>229900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>108500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>131900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>160300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>202400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>100900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>111700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1150,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,43 +1236,46 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1303,61 +1322,64 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3000</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
       <c r="H15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>2600</v>
       </c>
       <c r="L15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1800</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1390,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1386,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>837700</v>
+      </c>
+      <c r="E17" s="3">
         <v>890000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1001400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1026500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>764100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>769800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>833000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>919300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>640600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>652900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>683300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>705400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>483100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>530600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>659700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>442000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>474000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>537000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>602000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>392000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>416900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>468600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>531500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>346900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>364700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>101200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>190100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>164600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>85800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-20600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>33800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1611,8 +1643,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1632,20 +1665,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1653,185 +1686,191 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-500</v>
       </c>
       <c r="R20" s="3">
         <v>-500</v>
       </c>
       <c r="S20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-6200</v>
       </c>
       <c r="Y20" s="3">
         <v>-6200</v>
       </c>
       <c r="Z20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E21" s="3">
         <v>31600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>184600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>90300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-15500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>38700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>81300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1842,8 +1881,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1860,174 +1899,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>185500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>160300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>104700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-33700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-27200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>27600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>70500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-6700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-10200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>26300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2109,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>64700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>29900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>44200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>123500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>64700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-24100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>29900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>63100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>44200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2358,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,17 +2453,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2411,11 +2471,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2423,11 +2483,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2441,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,8 +2673,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2628,20 +2697,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2649,132 +2718,138 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>500</v>
       </c>
       <c r="R32" s="3">
         <v>500</v>
       </c>
       <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>6200</v>
       </c>
       <c r="Y32" s="3">
         <v>6200</v>
       </c>
       <c r="Z32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AA32" s="3">
         <v>6600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>140700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>123500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>63100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>44200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2856,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>140700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>123500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>63100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>44200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44563</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44199</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3089,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E41" s="3">
         <v>29100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>274600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>31700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>20200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>16300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,340 +3344,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>510100</v>
+      </c>
+      <c r="E43" s="3">
         <v>466400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>502800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>527100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>437100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>397100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>419600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>415400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>349200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>299600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>323800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>332700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>318400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>290400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>326800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>344400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>284000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>295300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>317900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>327100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>246900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>222600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>250000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>255600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>208900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>170600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>943100</v>
+      </c>
+      <c r="E44" s="3">
         <v>767700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>853500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>864900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>853700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>636600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>628900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>614000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>621800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>458600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>475100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>465500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>545000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>427100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>478500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>488000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>503400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>411700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>426500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>447500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>464300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>338300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>374600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>392600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>389300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>289600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E45" s="3">
         <v>56100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>31000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>24300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>33100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>24700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>13500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1567100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1319300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1476300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1498500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1385900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1128800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1255500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1179700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1040600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>851600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1115600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>993400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>916200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>765800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>875200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>893000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>832200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>765400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>813100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>822700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>771300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>601900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>681800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>693100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>633500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>490000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3670,174 +3774,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E48" s="3">
         <v>511000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>486400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>473900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>460700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>451700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>407600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>401300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>388700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>390000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>359500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>347600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>351400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>335900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>323900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>309600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>293300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>88400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>82500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>79200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>75500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>77800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>73000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>71600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>69800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>699200</v>
+      </c>
+      <c r="E49" s="3">
         <v>687900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>653400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>609000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>544900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>525000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>480500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>488500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>469800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>446900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>376600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>361600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>369800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>331900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>319500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>319300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>304600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>304000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>298300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>257300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>249900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>219300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>215400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>216300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>220500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>174100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3919,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4002,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4168,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2832600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2533900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2632400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2594300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2407400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2116100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2151800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2077900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1906700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1695700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1857200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1711100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1646500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1443300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1527200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1530600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1439300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1168500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1210700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1181000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1118600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>910700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>985000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>991600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>935000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>742600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4282,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4313,506 +4442,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>365600</v>
+      </c>
+      <c r="E57" s="3">
         <v>279700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>340000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>342400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>390300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>254500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>295300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>313400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>320600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>172800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>223100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>239000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>251400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>209100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>217600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>230200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>184600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>197400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>215400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>236800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>124100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>170100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>192300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>197300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>108300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E58" s="3">
         <v>18800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E59" s="3">
         <v>261300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>250200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>255100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>191900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>243400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>229900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>227900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>167200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>157300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>139400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>129900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>109500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>88100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>65500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>73300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>74900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>84300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>59500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>69900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>607600</v>
+      </c>
+      <c r="E60" s="3">
         <v>559800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>607100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>613400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>597500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>512900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>540300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>555900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>502100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>406000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>409600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>395400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>310800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>359000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>357300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>349300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>282400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>299400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>306100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>310900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>205800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>253100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>284400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>264300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>185500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>606200</v>
+      </c>
+      <c r="E61" s="3">
         <v>390500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>422400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>470500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>446400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>285600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>351300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>350400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>372900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>293100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>456000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>627000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>659800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>536600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>585800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>637100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>638500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>563200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>579300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>578500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>581600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>466900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>484200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>483100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>493800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>379200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E62" s="3">
         <v>280700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>279600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>266800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>264300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>259900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>237500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>235000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>226200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>239000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>218000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>212200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>213800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>202700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>197700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>189600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>37200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>37000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>29100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4894,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5060,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1529900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1231000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1309100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1350700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1308200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1058400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1129100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1141300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1101200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1080000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1248800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1269000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1050100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1142500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1184000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1161600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>866700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>906600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>911600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>917500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>697900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>779300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>804700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>795100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>593800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5174,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5257,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5340,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5423,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5506,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>738400</v>
+      </c>
+      <c r="E72" s="3">
         <v>742900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>743800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>670500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>529800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>497500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>470000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>390000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>266500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>259100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>247600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>199400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>120300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>137800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>135300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>60100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>62200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-19200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-80200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5755,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5838,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1302700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1302900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1323300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1243600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1099200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1057700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1022700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>936600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>805500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>795000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>777200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>462300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>377500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>393200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>384700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>346600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>277700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>301800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>304100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>269400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>201100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>212800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>205700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>186900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>139900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>148800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6004,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44563</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44199</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>140700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>123500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>63100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>44200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6206,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E83" s="3">
         <v>31600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6372,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6455,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6538,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6621,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6704,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="E89" s="3">
         <v>104700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>136100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-118300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>137700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-45500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>61600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>184700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-65600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>66400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>75800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-48500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-40800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>17100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-54700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>63700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6818,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-7100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3900</v>
+        <v>-11000</v>
       </c>
       <c r="F91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6984,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7067,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-55300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-59000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7181,8 +7413,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7262,10 +7495,13 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7347,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7430,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7513,133 +7755,139 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-65100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>150600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-71000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>68900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-171000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>80500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>119600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>71400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>111200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>113300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-60800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
       </c>
       <c r="L101" s="3">
         <v>200</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7647,119 +7895,125 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>100</v>
       </c>
       <c r="AA101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-104300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>75300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-219400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>110800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>141800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1353700</v>
+      </c>
+      <c r="E8" s="3">
         <v>837400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>890000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1102600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1216600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>805300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>805200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>936400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1083900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>650200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>675100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>751900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>817700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>459800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>535000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>652800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>752400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>417300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>474600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>578500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>687800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>371400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>415700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>502400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>608600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>335000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>361700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>864300</v>
+      </c>
+      <c r="E9" s="3">
         <v>550300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>587400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>714000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>755500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>536100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>522800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>595900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>695700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>448700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>452800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>501800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>531600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>317000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>365000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>437600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>494400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>287300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>325900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>387500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>457900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>262900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>283800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>342100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>406200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>234100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>250000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E10" s="3">
         <v>287100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>302600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>388600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>461100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>282400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>340500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>388200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>201500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>250100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>286100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>142800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>170000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>215200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>258000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>148700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>191000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>229900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>108500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>131900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>160300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>202400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>100900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>111700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,46 +1255,49 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1325,64 +1344,67 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
         <v>4200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>3000</v>
       </c>
       <c r="I15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3">
         <v>2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2600</v>
       </c>
       <c r="L15" s="3">
         <v>2600</v>
       </c>
       <c r="M15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1800</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1393,8 +1415,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1411,8 +1433,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1182400</v>
+      </c>
+      <c r="E17" s="3">
         <v>837700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>890000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1001400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1026500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>764100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>769800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>833000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>919300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>640600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>652900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>683300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>705400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>483100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>530600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>659700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>442000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>474000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>537000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>602000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>392000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>416900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>468600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>531500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>346900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>364700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>101200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>190100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>103400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>85800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-20600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>33800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>77100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-11900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1644,8 +1676,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1668,20 +1701,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1689,191 +1722,197 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-500</v>
       </c>
       <c r="S20" s="3">
         <v>-500</v>
       </c>
       <c r="T20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-6200</v>
       </c>
       <c r="Z20" s="3">
         <v>-6200</v>
       </c>
       <c r="AA20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E21" s="3">
         <v>30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>213200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>62900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>184600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>90300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>81300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>6900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1884,8 +1923,8 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1902,180 +1941,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>185500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>104700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-33700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-27200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>70500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>26300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>140700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>64700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-24100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>29900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>63100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>44200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>140700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>80000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>64700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-24100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>29900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>63100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>44200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2456,17 +2516,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2474,11 +2534,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2486,11 +2546,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>3200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2504,8 +2564,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,8 +2742,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2700,20 +2769,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2721,135 +2790,141 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>500</v>
       </c>
       <c r="S32" s="3">
         <v>500</v>
       </c>
       <c r="T32" s="3">
+        <v>500</v>
+      </c>
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>6200</v>
       </c>
       <c r="Z32" s="3">
         <v>6200</v>
       </c>
       <c r="AA32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>6600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>140700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>80000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>123500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>64700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>63100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>44200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>140700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>80000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>123500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>64700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>63100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>44200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44563</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44199</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E41" s="3">
         <v>40300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>274600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>163800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>20200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>16300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,352 +3436,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>569600</v>
+      </c>
+      <c r="E43" s="3">
         <v>510100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>466400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>502800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>527100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>437100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>397100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>419600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>415400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>349200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>299600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>323800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>332700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>318400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>290400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>326800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>344400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>284000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>295300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>317900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>327100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>246900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>222600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>250000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>255600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>208900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>170600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>865400</v>
+      </c>
+      <c r="E44" s="3">
         <v>943100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>767700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>853500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>864900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>853700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>636600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>628900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>614000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>621800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>458600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>475100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>465500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>545000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>427100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>478500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>488000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>503400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>411700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>426500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>447500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>464300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>338300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>374600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>392600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>389300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>289600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E45" s="3">
         <v>73600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>31000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>24300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>33100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>24700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>13500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1567100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1319300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1476300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1498500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1385900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1128800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1255500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1179700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1040600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>851600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1115600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>993400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>916200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>765800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>875200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>893000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>832200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>765400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>813100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>822700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>771300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>601900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>681800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>693100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>633500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>490000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3777,180 +3881,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>566100</v>
+      </c>
+      <c r="E48" s="3">
         <v>553500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>511000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>486400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>473900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>460700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>451700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>407600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>401300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>388700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>390000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>359500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>347600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>351400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>335900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>323900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>309600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>293300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>88400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>82500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>79200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>75500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>77800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>73000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>71600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>69800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>708100</v>
+      </c>
+      <c r="E49" s="3">
         <v>699200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>687900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>653400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>609000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>544900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>525000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>480500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>488500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>469800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>446900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>376600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>361600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>369800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>331900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>319500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>319300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>304600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>304000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>298300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>257300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>249900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>219300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>215400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>216300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>220500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>174100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,94 +4237,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2872500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2832600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2533900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2632400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2594300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2407400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2116100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2151800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2077900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1906700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1695700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1857200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1711100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1646500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1443300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1527200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1530600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1439300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1168500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1210700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1181000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1118600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>910700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>985000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>991600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>935000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>742600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,524 +4572,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>382300</v>
+      </c>
+      <c r="E57" s="3">
         <v>365600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>279700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>340000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>342400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>390300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>254500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>295300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>313400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>320600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>172800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>223100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>239000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>251400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>162200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>209100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>217600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>230200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>184600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>197400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>215400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>236800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>124100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>170100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>192300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>197300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>108300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E59" s="3">
         <v>221800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>261300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>250200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>255100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>191900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>243400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>229900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>227900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>167200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>157300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>137400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>139400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>129900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>109500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>88100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>91900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>81400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>65500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>73300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>74900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>84300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>59500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>69900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>682900</v>
+      </c>
+      <c r="E60" s="3">
         <v>607600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>559800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>607100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>613400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>597500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>512900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>540300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>555900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>502100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>368600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>406000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>409600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>395400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>310800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>359000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>357300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>349300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>282400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>299400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>306100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>310900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>205800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>253100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>284400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>264300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>185500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>432500</v>
+      </c>
+      <c r="E61" s="3">
         <v>606200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>390500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>422400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>470500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>446400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>351300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>350400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>372900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>293100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>456000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>627000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>659800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>536600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>585800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>637100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>638500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>563200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>579300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>578500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>581600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>466900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>484200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>483100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>493800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>379200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E62" s="3">
         <v>316100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>280700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>279600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>266800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>264300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>259900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>237500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>235000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>239000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>218000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>212200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>213800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>202700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>197700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>189600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>42000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>37200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>37000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>29100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1437500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1529900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1231000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1309100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1350700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1308200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1058400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1129100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1141300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1101200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1080000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1248800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1050100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1142500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1184000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1161600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>866700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>906600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>911600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>917500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>697900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>779300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>804700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>795100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>593800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>862400</v>
+      </c>
+      <c r="E72" s="3">
         <v>738400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>742900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>743800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>670500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>529800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>497500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>470000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>390000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>266500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>259100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>247600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>199400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>120300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>137800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>135300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>60100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>62200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-30800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-19200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-80200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-69700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1302700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1302900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1323300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1243600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1099200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1057700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1022700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>936600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>805500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>795000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>777200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>462300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>377500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>393200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>384700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>346600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>277700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>301800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>304100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>269400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>201100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>212800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>205700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>186900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>139900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>148800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44563</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44199</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>140700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>80000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>123500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>64700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>63100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>44200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,94 +6601,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E83" s="3">
         <v>30800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-152600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>104700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>136100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-118300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>137700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-45500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-65600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>66400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>75800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-48500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>70100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>30900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>17100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>23000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-54700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>63700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7257,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-73400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-84700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-97300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-59000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7646,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7498,10 +7731,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,139 +8000,145 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-189400</v>
+      </c>
+      <c r="E100" s="3">
         <v>203400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-65100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>150600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-71000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>68900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-171000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>80500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>119600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>71400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>111200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>113300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-60800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7898,122 +8146,128 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>100</v>
       </c>
       <c r="AB101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-104300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>75300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-219400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>141800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,402 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44563</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44199</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1353700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>837400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>890000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1102600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1216600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>805300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>805200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>936400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1083900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>650200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>675100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>751900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>817700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>459800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>535000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>652800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>752400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>417300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>474600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>578500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>687800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>371400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>415700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>502400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>608600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>335000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>361700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>444500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E9" s="3">
         <v>864300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>550300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>587400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>714000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>755500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>536100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>522800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>595900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>695700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>448700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>452800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>501800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>531600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>317000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>365000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>437600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>494400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>287300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>325900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>387500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>457900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>262900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>283800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>342100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>406200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>234100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>250000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>306100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388100</v>
+      </c>
+      <c r="E10" s="3">
         <v>489400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>302600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>388600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>461100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>269200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>282400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>340500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>388200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>201500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>250100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>286100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>170000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>215200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>258000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>130000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>148700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>191000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>229900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>108500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>131900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>160300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>202400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>100900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>111700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1092,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1182,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1274,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1269,38 +1288,38 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1347,67 +1366,70 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E15" s="3">
         <v>4700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3000</v>
       </c>
       <c r="I15" s="3">
         <v>3000</v>
       </c>
       <c r="J15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2600</v>
       </c>
       <c r="M15" s="3">
         <v>2600</v>
       </c>
       <c r="N15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1800</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1418,8 +1440,8 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1436,8 +1458,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1491,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1063900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1182400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>837700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>890000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1001400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1026500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>764100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>769800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>833000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>919300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>640600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>652900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>683300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>705400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>483100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>530600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>659700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>442000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>474000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>537000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>602000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>392000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>416900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>468600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>531500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>346900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>364700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>412600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E18" s="3">
         <v>171300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>101200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>190100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>164600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>92700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>85800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-20600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>33800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>77100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-11900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,8 +1709,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1704,20 +1737,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1725,197 +1758,203 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-500</v>
       </c>
       <c r="T20" s="3">
         <v>-500</v>
       </c>
       <c r="U20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-6200</v>
       </c>
       <c r="AA20" s="3">
         <v>-6200</v>
       </c>
       <c r="AB20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E21" s="3">
         <v>202300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>213200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>62900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>184600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>128700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>90300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>38700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>81300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-8300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8100</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1926,8 +1965,8 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1944,186 +1983,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E23" s="3">
         <v>164000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>96200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>185500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>160300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>104700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-33700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-27200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>70500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-18100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>44800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>26300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-4100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2259,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E26" s="3">
         <v>124000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>73300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>64700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-24100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>29900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>63100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>44200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E27" s="3">
         <v>124000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>140700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>64700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-24100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>29900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>63100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>44200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2535,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2519,17 +2579,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2537,11 +2597,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2549,11 +2609,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>3200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2567,8 +2627,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2719,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,8 +2811,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2772,20 +2841,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2793,138 +2862,144 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>500</v>
       </c>
       <c r="T32" s="3">
         <v>500</v>
       </c>
       <c r="U32" s="3">
+        <v>500</v>
+      </c>
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>6200</v>
       </c>
       <c r="AA32" s="3">
         <v>6200</v>
       </c>
       <c r="AB32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AC32" s="3">
         <v>6600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>6700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E33" s="3">
         <v>124000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>140700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>80000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>123500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>64700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>63100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>44200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3087,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E35" s="3">
         <v>124000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>140700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>80000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>123500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>64700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>63100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>44200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44563</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44199</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3312,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3346,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E41" s="3">
         <v>69600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>274600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>163800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>16300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,364 +3528,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>544100</v>
+      </c>
+      <c r="E43" s="3">
         <v>569600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>510100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>466400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>502800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>527100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>437100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>397100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>419600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>415400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>349200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>299600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>323800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>332700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>318400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>290400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>326800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>344400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>284000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>295300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>317900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>327100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>246900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>222600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>250000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>255600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>208900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>170600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>228500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>852200</v>
+      </c>
+      <c r="E44" s="3">
         <v>865400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>943100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>767700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>853500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>864900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>853700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>636600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>628900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>614000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>621800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>458600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>475100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>465500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>545000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>427100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>478500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>488000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>503400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>411700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>426500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>447500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>464300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>338300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>374600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>392600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>389300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>289600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>310400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E45" s="3">
         <v>81400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>41100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>31000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>28400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>24300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>33100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>24700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>13500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1573500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1586000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1567100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1319300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1476300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1498500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1385900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1128800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1255500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1179700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1040600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>851600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1115600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>993400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>916200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>765800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>875200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>893000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>832200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>765400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>813100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>822700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>771300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>601900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>681800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>693100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>633500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>490000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>590900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3884,186 +3988,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>617300</v>
+      </c>
+      <c r="E48" s="3">
         <v>566100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>553500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>511000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>486400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>473900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>460700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>451700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>407600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>401300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>388700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>390000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>359500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>347600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>351400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>335900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>323900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>309600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>293300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>82500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>79200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>75500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>77800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>73000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>71600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>69800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>788600</v>
+      </c>
+      <c r="E49" s="3">
         <v>708100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>699200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>687900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>653400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>609000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>544900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>525000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>480500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>488500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>469800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>446900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>376600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>361600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>369800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>331900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>319500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>319300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>304600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>304000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>298300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>257300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>249900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>219300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>215400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>216300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>220500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>174100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4264,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,97 +4356,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>12300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>14000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4540,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2989500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2872500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2832600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2533900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2632400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2594300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2407400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2116100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2151800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2077900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1906700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1695700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1857200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1711100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1646500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1443300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1527200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1530600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1439300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1168500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1210700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1181000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1118600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>910700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>985000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>991600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>935000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>742600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>840000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4668,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,542 +4702,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E57" s="3">
         <v>382300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>365600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>279700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>340000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>342400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>390300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>254500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>295300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>313400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>320600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>172800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>223100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>239000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>251400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>162200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>209100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>217600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>230200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>184600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>197400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>215400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>236800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>124100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>170100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>192300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>197300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>108300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>137200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E59" s="3">
         <v>278100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>261300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>250200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>255100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>191900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>243400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>229900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>227900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>167200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>157300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>131600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>137400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>139400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>129900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>109500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>88100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>91900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>81400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>65500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>73300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>74900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>84300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>59500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>69900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>654700</v>
+      </c>
+      <c r="E60" s="3">
         <v>682900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>607600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>559800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>607100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>613400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>597500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>512900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>540300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>555900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>502100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>368600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>406000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>409600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>395400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>310800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>359000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>357300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>349300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>282400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>299400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>306100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>310900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>205800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>253100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>284400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>264300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>185500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>207900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>495600</v>
+      </c>
+      <c r="E61" s="3">
         <v>432500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>606200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>390500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>422400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>470500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>446400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>285600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>351300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>350400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>372900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>293100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>456000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>627000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>659800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>536600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>585800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>637100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>638500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>563200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>579300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>578500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>581600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>466900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>484200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>483100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>493800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>379200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>438200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E62" s="3">
         <v>322100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>316100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>280700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>279600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>266800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>264300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>259900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>237500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>235000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>226200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>239000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>218000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>212200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>213800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>202700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>197700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>189600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>173800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>25200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>42000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>37200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>37000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>29100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5344,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5436,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5528,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1437500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1529900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1231000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1309100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1350700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1308200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1058400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1129100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1141300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1101200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1080000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1248800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1269000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1050100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1142500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1184000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1161600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>866700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>906600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>911600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>917500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>697900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>779300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>804700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>795100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>593800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>687200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5656,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5746,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5838,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5930,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6022,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>919700</v>
+      </c>
+      <c r="E72" s="3">
         <v>862400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>738400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>742900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>743800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>670500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>529800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>497500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>470000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>390000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>266500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>259100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>247600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>199400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>120300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>137800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>135300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>60100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>62200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>32300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-30800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-36000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-80200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-69700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6206,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6298,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6390,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1495500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1435000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1302700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1302900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1323300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1243600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1099200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1057700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1022700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>936600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>805500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>795000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>777200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>462300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>377500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>393200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>384700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>346600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>277700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>301800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>304100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>269400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>201100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>212800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>205700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>186900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>139900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>148800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>152800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6574,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44563</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44199</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E81" s="3">
         <v>124000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>140700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>80000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>123500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>64700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>63100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>44200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,97 +6799,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E83" s="3">
         <v>31000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6981,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7073,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7165,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7257,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7349,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E89" s="3">
         <v>253800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-152600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>104700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>136100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>94700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-118300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>137700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-45500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>184700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-65600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>75800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-48500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>70100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>30900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>17100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>23000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-54700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>63700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,97 +7477,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7659,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,97 +7751,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-84700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-61700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-59000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7879,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7734,10 +7967,13 @@
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-163000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8061,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8153,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,145 +8245,151 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-189400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>203400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-65100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>150600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-71000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>68900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>80500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>119600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>71400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>111200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>113300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-60800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>200</v>
       </c>
       <c r="N101" s="3">
         <v>200</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -8149,125 +8397,131 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB101" s="3">
         <v>100</v>
       </c>
       <c r="AC101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-104300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>75300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-219400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>141800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>6900</v>
       </c>
     </row>
